--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/Pulley Mass Properties2.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/Pulley Mass Properties2.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\Adjustable Spiral Torsion Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5216668D-26F3-44D1-97C6-4C2E67BA97EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C7671F-1A52-4242-A411-95E3DB6B5973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{95D9683D-08D6-4CBF-825F-EDCE23BB3FEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{95D9683D-08D6-4CBF-825F-EDCE23BB3FEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -508,7 +507,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/Pulley Mass Properties2.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/Pulley Mass Properties2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\Adjustable Spiral Torsion Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C7671F-1A52-4242-A411-95E3DB6B5973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B14A9FB-16B7-4A7A-A4E3-CEFB3B956BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{95D9683D-08D6-4CBF-825F-EDCE23BB3FEC}"/>
+    <workbookView xWindow="-28920" yWindow="-135" windowWidth="29040" windowHeight="15720" xr2:uid="{95D9683D-08D6-4CBF-825F-EDCE23BB3FEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>2L5LT4ST_37T</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>Total Inertia</t>
+  </si>
+  <si>
+    <t>r125</t>
+  </si>
+  <si>
+    <t>r0.02039</t>
   </si>
 </sst>
 </file>
@@ -507,7 +513,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,6 +536,9 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
@@ -540,6 +549,9 @@
       </c>
       <c r="F2" t="s">
         <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
       </c>
       <c r="I2" t="s">
         <v>4</v>
